--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1074"/>
+  <dimension ref="A1:B1075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9036,6 +9036,14 @@
       </c>
       <c r="B1074" t="n">
         <v>-76.292</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>-77.74299999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9084,7 +9092,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9104,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9140,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9224,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-06 15:33:24-05</t>
+          <t>2023-07-13 15:35:23-05</t>
         </is>
       </c>
     </row>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1075"/>
+  <dimension ref="A1:B1076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9044,6 +9044,14 @@
       </c>
       <c r="B1075" t="n">
         <v>-77.74299999999999</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="3" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>-79.95699999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9092,7 +9100,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9112,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9148,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-19</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9232,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-13 15:35:23-05</t>
+          <t>2023-07-20 15:34:23-05</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9243,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1076"/>
+  <dimension ref="A1:B1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9052,6 +9052,14 @@
       </c>
       <c r="B1076" t="n">
         <v>-79.95699999999999</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>-82.68300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9100,7 +9108,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -9112,7 +9120,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9156,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-26</t>
         </is>
       </c>
     </row>
@@ -9232,7 +9240,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-20 15:34:23-05</t>
+          <t>2023-07-27 15:34:04-05</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9251,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1077"/>
+  <dimension ref="A1:B1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9060,6 +9060,14 @@
       </c>
       <c r="B1077" t="n">
         <v>-82.68300000000001</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>-85.62</v>
       </c>
     </row>
   </sheetData>
@@ -9108,7 +9116,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9128,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9164,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2023-08-02</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9248,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-27 15:34:04-05</t>
+          <t>2023-08-03 15:34:07-05</t>
         </is>
       </c>
     </row>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -9116,7 +9116,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1078"/>
+  <dimension ref="A1:B1080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9068,6 +9068,22 @@
       </c>
       <c r="B1078" t="n">
         <v>-85.62</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="3" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>-87.813</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="3" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>-90.255</v>
       </c>
     </row>
   </sheetData>
@@ -9116,7 +9132,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9144,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9180,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-16</t>
         </is>
       </c>
     </row>
@@ -9248,7 +9264,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-03 15:34:07-05</t>
+          <t>2023-08-17 15:34:17-05</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9275,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1080"/>
+  <dimension ref="A1:B1084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9084,6 +9084,38 @@
       </c>
       <c r="B1080" t="n">
         <v>-90.255</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="3" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>-92.624</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>-95.121</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="3" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>-97.816</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="3" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>-100.128</v>
       </c>
     </row>
   </sheetData>
@@ -9132,7 +9164,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-16</t>
         </is>
       </c>
     </row>
@@ -9144,7 +9176,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-16</t>
         </is>
       </c>
     </row>
@@ -9180,7 +9212,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-09-13</t>
         </is>
       </c>
     </row>
@@ -9264,7 +9296,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-17 15:34:17-05</t>
+          <t>2023-09-14 15:34:12-05</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9307,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1084"/>
+  <dimension ref="A1:B1089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9116,6 +9116,46 @@
       </c>
       <c r="B1084" t="n">
         <v>-100.128</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="3" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>-102.388</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="3" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>-105.146</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="3" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>-107.302</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="3" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>-109.09</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>-110.926</v>
       </c>
     </row>
   </sheetData>
@@ -9164,7 +9204,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-23</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9216,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-23</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9252,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-18</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9336,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-09-14 15:34:12-05</t>
+          <t>2023-10-19 15:34:15-05</t>
         </is>
       </c>
     </row>
@@ -9307,7 +9347,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1089"/>
+  <dimension ref="A1:B1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9156,6 +9156,14 @@
       </c>
       <c r="B1089" t="n">
         <v>-110.926</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>-113.255</v>
       </c>
     </row>
   </sheetData>
@@ -9204,7 +9212,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9224,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9260,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-25</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9344,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-10-19 15:34:15-05</t>
+          <t>2023-10-26 15:34:03-05</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9355,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1090"/>
+  <dimension ref="A1:B1092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9164,6 +9164,22 @@
       </c>
       <c r="B1090" t="n">
         <v>-113.255</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="3" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>-115.034</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="3" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>-116.882</v>
       </c>
     </row>
   </sheetData>
@@ -9212,7 +9228,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9240,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -9260,7 +9276,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-11-08</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9360,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-10-26 15:34:03-05</t>
+          <t>2023-11-09 15:37:02-06</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9371,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
+++ b/Generic_Macro/SavedData/RESPPLLOPNWW.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1092"/>
+  <dimension ref="A1:B1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9180,6 +9180,14 @@
       </c>
       <c r="B1092" t="n">
         <v>-116.882</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="3" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>-118.699</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +9236,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9248,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9284,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -9360,7 +9368,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-09 15:37:02-06</t>
+          <t>2023-11-16 15:34:06-06</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9379,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
